--- a/res/house.xlsx
+++ b/res/house.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17310" windowHeight="6990"/>
+    <workbookView windowWidth="14170" windowHeight="7840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="房屋成交信息" sheetId="1" r:id="rId1"/>
+    <sheet name="社区编号目录" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,17 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>交易时间</t>
+  </si>
+  <si>
     <t>所在社区编号</t>
   </si>
   <si>
-    <t>交易时间</t>
-  </si>
-  <si>
     <t>挂牌天数</t>
   </si>
   <si>
@@ -50,13 +51,13 @@
     <t>平米均价</t>
   </si>
   <si>
-    <t>画积</t>
+    <t>面积</t>
   </si>
   <si>
     <t>卧室</t>
   </si>
   <si>
-    <t>客厅 厨房</t>
+    <t>客厅</t>
   </si>
   <si>
     <t>厨房</t>
@@ -71,201 +72,79 @@
     <t>建成时间</t>
   </si>
   <si>
-    <t>id 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>链家网址</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="204"/>
-      </rPr>
-      <t>逸成东</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>01</t>
-    </r>
+    <t xml:space="preserve">链家网址                </t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>社区名称</t>
+  </si>
+  <si>
+    <t>逸成东01</t>
   </si>
   <si>
     <t>中6</t>
   </si>
   <si>
+    <t>httes//bjlanjacomchengia</t>
+  </si>
+  <si>
     <t xml:space="preserve">10L101492812  </t>
   </si>
   <si>
-    <t>httes//bj   lanjacomchengia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="204"/>
-      </rPr>
-      <t>天通苑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>04</t>
-    </r>
+    <t>逸成东二期</t>
+  </si>
+  <si>
+    <t>天通苑04</t>
+  </si>
+  <si>
+    <t>httos/bjlanjacom/chengia</t>
   </si>
   <si>
     <t xml:space="preserve">10L101594408 </t>
   </si>
   <si>
-    <t>httos/bjlanjacom/chengia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="204"/>
-      </rPr>
-      <t>汽南小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>01</t>
-    </r>
-  </si>
-  <si>
-    <t>1    1</t>
+    <t>天通苑三区</t>
+  </si>
+  <si>
+    <t>汽南小01</t>
   </si>
   <si>
     <t>中24</t>
   </si>
   <si>
-    <t>httrps//bj ianiacomvchengis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="204"/>
-      </rPr>
-      <t>门头沟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>01</t>
-    </r>
+    <t>httrps//bjianiacomvchengis</t>
+  </si>
+  <si>
+    <t>101101601669</t>
+  </si>
+  <si>
+    <t>汽南小区中苑</t>
+  </si>
+  <si>
+    <t>门头沟01</t>
   </si>
   <si>
     <t>高14</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">https//bjionjacom/chengis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="204"/>
-      </rPr>
-      <t>新街口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>01</t>
-    </r>
+    <t xml:space="preserve">https//bjionjacom/chengis   </t>
+  </si>
+  <si>
+    <t>101101685048</t>
+  </si>
+  <si>
+    <t>新街口01</t>
   </si>
   <si>
     <t xml:space="preserve">hnttns//bykonpacomchengis </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="204"/>
-      </rPr>
-      <t>瑞祥里</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>01</t>
-    </r>
+    <t>101101704540</t>
+  </si>
+  <si>
+    <t>瑞祥里01</t>
   </si>
   <si>
     <t>中20</t>
@@ -274,30 +153,37 @@
     <t>https/blstiscomvchengs</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="204"/>
-      </rPr>
-      <t>瑞祥里</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>02</t>
-    </r>
+    <t>101101711072</t>
   </si>
   <si>
     <t>顶22</t>
   </si>
   <si>
-    <t xml:space="preserve">0 https//bjlisnjscomchengis </t>
+    <t>https//bjlisnjscomchengis</t>
+  </si>
+  <si>
+    <t>101101739667</t>
+  </si>
+  <si>
+    <t>小区名称</t>
+  </si>
+  <si>
+    <t>逸成东</t>
+  </si>
+  <si>
+    <t>天通苑</t>
+  </si>
+  <si>
+    <t>汽南小区</t>
+  </si>
+  <si>
+    <t>门头沟小区</t>
+  </si>
+  <si>
+    <t>新街口</t>
+  </si>
+  <si>
+    <t>瑞祥里</t>
   </si>
 </sst>
 </file>
@@ -312,11 +198,44 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="204"/>
     </font>
     <font>
@@ -327,12 +246,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -342,34 +255,7 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -527,13 +413,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1000,14 +879,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,28 +910,40 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,438 +1265,549 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q2" sqref="Q2:Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.41666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.55" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.21666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.16666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.65" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.69166666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.08333333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.675" style="3" customWidth="1"/>
-    <col min="10" max="10" width="4.26666666666667" style="3" customWidth="1"/>
-    <col min="11" max="11" width="3.675" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.33333333333333" style="3" customWidth="1"/>
-    <col min="13" max="14" width="7.20833333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.45" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.3916666666667" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="7.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.175" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21666666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.05" style="9" customWidth="1"/>
+    <col min="6" max="6" width="3.65" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.69166666666667" style="9" customWidth="1"/>
+    <col min="8" max="8" width="5.08333333333333" style="9" customWidth="1"/>
+    <col min="9" max="9" width="3.675" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.05" style="9" customWidth="1"/>
+    <col min="11" max="11" width="4.35" style="9" customWidth="1"/>
+    <col min="12" max="12" width="4.23333333333333" style="9" customWidth="1"/>
+    <col min="13" max="13" width="7.20833333333333" style="10" customWidth="1"/>
+    <col min="14" max="14" width="7.20833333333333" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.3916666666667" style="10" customWidth="1"/>
+    <col min="16" max="17" width="9" style="10"/>
+    <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="10.5" customHeight="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="1" ht="10.5" customHeight="1" spans="1:17">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="10.5" customHeight="1" spans="1:16">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1111052857096</v>
-      </c>
-      <c r="C2" s="10">
+    <row r="2" ht="10.5" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="14">
         <v>43103</v>
       </c>
-      <c r="D2" s="9">
+      <c r="C2" s="5">
+        <v>10001</v>
+      </c>
+      <c r="D2" s="15">
         <v>259</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="15">
         <v>226</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="15">
         <v>380</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="15">
         <v>47560</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="15">
         <v>79</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="15">
         <v>2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="15">
         <v>1</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="15">
         <v>1</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="12">
+      <c r="M2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="19">
         <v>2003</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="10.5" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14">
+        <v>43103</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10002</v>
+      </c>
+      <c r="D3" s="15">
+        <v>231</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9</v>
+      </c>
+      <c r="F3" s="15">
+        <v>507</v>
+      </c>
+      <c r="G3" s="15">
+        <v>36071</v>
+      </c>
+      <c r="H3" s="15">
+        <v>140</v>
+      </c>
+      <c r="I3" s="15">
+        <v>3</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15">
+        <v>2</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>19</v>
+      <c r="N3" s="19">
+        <v>2001</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" ht="10.5" customHeight="1" spans="1:16">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1111052857097</v>
-      </c>
-      <c r="C3" s="10">
+    <row r="4" ht="10.5" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="14">
         <v>43103</v>
       </c>
-      <c r="D3" s="9">
-        <v>231</v>
-      </c>
-      <c r="E3" s="9">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9">
-        <v>507</v>
-      </c>
-      <c r="G3" s="9">
-        <v>36071</v>
-      </c>
-      <c r="H3" s="9">
-        <v>140</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="C4" s="5">
+        <v>10003</v>
+      </c>
+      <c r="D4" s="15">
+        <v>229</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>515</v>
+      </c>
+      <c r="G4" s="15">
+        <v>49305</v>
+      </c>
+      <c r="H4" s="15">
+        <v>104</v>
+      </c>
+      <c r="I4" s="15">
         <v>3</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1985</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="12" customHeight="1" spans="1:17">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14">
+        <v>43103</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10004</v>
+      </c>
+      <c r="D5" s="15">
+        <v>208</v>
+      </c>
+      <c r="E5" s="15">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15">
+        <v>305</v>
+      </c>
+      <c r="G5" s="15">
+        <v>34731</v>
+      </c>
+      <c r="H5" s="15">
+        <v>87</v>
+      </c>
+      <c r="I5" s="15">
         <v>2</v>
       </c>
-      <c r="K3" s="9">
+      <c r="J5" s="19">
         <v>1</v>
       </c>
-      <c r="L3" s="9">
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1990</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="10.5" customHeight="1" spans="1:17">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="14">
+        <v>43103</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10005</v>
+      </c>
+      <c r="D6" s="15">
+        <v>201</v>
+      </c>
+      <c r="E6" s="15">
         <v>2</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="12">
-        <v>2001</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>22</v>
+      <c r="F6" s="15">
+        <v>260</v>
+      </c>
+      <c r="G6" s="15">
+        <v>47247</v>
+      </c>
+      <c r="H6" s="15">
+        <v>55</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="19">
+        <v>2005</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" ht="10.5" customHeight="1" spans="1:16">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1111052857098</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="7" ht="10.5" customHeight="1" spans="1:17">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14">
         <v>43103</v>
       </c>
-      <c r="D4" s="9">
-        <v>229</v>
-      </c>
-      <c r="E4" s="9">
-        <v>100</v>
-      </c>
-      <c r="F4" s="9">
-        <v>515</v>
-      </c>
-      <c r="G4" s="9">
-        <v>49305</v>
-      </c>
-      <c r="H4" s="9">
-        <v>104</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="C7" s="5">
+        <v>10006</v>
+      </c>
+      <c r="D7" s="15">
+        <v>200</v>
+      </c>
+      <c r="E7" s="15">
+        <v>313</v>
+      </c>
+      <c r="F7" s="15">
+        <v>665</v>
+      </c>
+      <c r="G7" s="15">
+        <v>49013</v>
+      </c>
+      <c r="H7" s="15">
+        <v>135</v>
+      </c>
+      <c r="I7" s="15">
         <v>3</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="L4" s="9">
+      <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="12">
-        <v>1985</v>
-      </c>
-      <c r="O4" s="9">
-        <v>101101601669</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>26</v>
+      <c r="L7" s="15">
+        <v>2</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2004</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" ht="12" customHeight="1" spans="1:16">
-      <c r="A5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1111052857099</v>
-      </c>
-      <c r="C5" s="10">
+    <row r="8" ht="10.5" customHeight="1" spans="1:17">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14">
         <v>43103</v>
       </c>
-      <c r="D5" s="9">
-        <v>208</v>
-      </c>
-      <c r="E5" s="9">
-        <v>8</v>
-      </c>
-      <c r="F5" s="9">
-        <v>305</v>
-      </c>
-      <c r="G5" s="9">
-        <v>34731</v>
-      </c>
-      <c r="H5" s="9">
-        <v>87</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="C8" s="5">
+        <v>10007</v>
+      </c>
+      <c r="D8" s="15">
+        <v>192</v>
+      </c>
+      <c r="E8" s="15">
+        <v>125</v>
+      </c>
+      <c r="F8" s="15">
+        <v>316</v>
+      </c>
+      <c r="G8" s="15">
+        <v>40446</v>
+      </c>
+      <c r="H8" s="15">
+        <v>78</v>
+      </c>
+      <c r="I8" s="15">
         <v>2</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="J8" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="9">
+      <c r="K8" s="15">
         <v>1</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="12">
-        <v>1990</v>
-      </c>
-      <c r="O5" s="9">
-        <v>101101685048</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" ht="10.5" customHeight="1" spans="1:16">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1111027378400</v>
-      </c>
-      <c r="C6" s="10">
-        <v>43103</v>
-      </c>
-      <c r="D6" s="9">
-        <v>201</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>260</v>
-      </c>
-      <c r="G6" s="9">
-        <v>47247</v>
-      </c>
-      <c r="H6" s="9">
-        <v>55</v>
-      </c>
-      <c r="I6" s="9">
-        <v>2</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="L8" s="15">
         <v>1</v>
       </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="12">
-        <v>2005</v>
-      </c>
-      <c r="O6" s="9">
-        <v>101101704540</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="10.5" customHeight="1" spans="1:16">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1111027375945</v>
-      </c>
-      <c r="C7" s="10">
-        <v>43103</v>
-      </c>
-      <c r="D7" s="9">
-        <v>200</v>
-      </c>
-      <c r="E7" s="9">
-        <v>313</v>
-      </c>
-      <c r="F7" s="9">
-        <v>665</v>
-      </c>
-      <c r="G7" s="9">
-        <v>49013</v>
-      </c>
-      <c r="H7" s="9">
-        <v>135</v>
-      </c>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="12">
-        <v>2004</v>
-      </c>
-      <c r="O7" s="9">
-        <v>101101711072</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="10.5" customHeight="1" spans="1:16">
-      <c r="A8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1111041160125</v>
-      </c>
-      <c r="C8" s="10">
-        <v>43103</v>
-      </c>
-      <c r="D8" s="9">
-        <v>192</v>
-      </c>
-      <c r="E8" s="9">
-        <v>125</v>
-      </c>
-      <c r="F8" s="9">
-        <v>316</v>
-      </c>
-      <c r="G8" s="9">
-        <v>40446</v>
-      </c>
-      <c r="H8" s="9">
-        <v>78</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="12">
+      <c r="M8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="19">
         <v>1999</v>
       </c>
-      <c r="O8" s="9">
-        <v>101101739667</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>37</v>
+      <c r="O8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P5" r:id="rId1" display="https//bjionjacom/chengis   "/>
-    <hyperlink ref="P7" r:id="rId2" display="https/blstiscomvchengs"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.175" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.41666666666667" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>10002</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>10003</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>10004</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>10006</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>10007</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>1009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>